--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E953929-1B90-4C36-A092-CAB5DEF8BB8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9F47F2-EF52-4BA8-82F4-78ED3DAC1FA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5DE80912-82F4-49DB-9079-8BAD84E53DF8}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
   <si>
     <t>Subject</t>
   </si>
@@ -126,9 +126,6 @@
   <si>
     <t>Upload file to elecronic
 appeal</t>
-  </si>
-  <si>
-    <t>Click on the contacts in upper left corner</t>
   </si>
   <si>
     <t>Click on electronic appeal</t>
@@ -205,88 +202,7 @@
     <t>User should be redirected to vk group page</t>
   </si>
   <si>
-    <t>Game menu</t>
-  </si>
-  <si>
-    <t>Game launch</t>
-  </si>
-  <si>
-    <t>Launch game</t>
-  </si>
-  <si>
-    <t>Opens main menu</t>
-  </si>
-  <si>
-    <t>Press campaing button</t>
-  </si>
-  <si>
-    <t>Opens level menu</t>
-  </si>
-  <si>
-    <t>Launch first mission</t>
-  </si>
-  <si>
-    <t>Level upload</t>
-  </si>
-  <si>
-    <t>Tutorial</t>
-  </si>
-  <si>
-    <t>Press 'Skip' button in left corner</t>
-  </si>
-  <si>
-    <t>Tutorial part skipped</t>
-  </si>
-  <si>
-    <t>Tutorial progress check</t>
-  </si>
-  <si>
-    <t>Tutorial skip check</t>
-  </si>
-  <si>
-    <t>Follow tutorial instructions</t>
-  </si>
-  <si>
-    <t>Next instructions appears</t>
-  </si>
-  <si>
-    <t>Building</t>
-  </si>
-  <si>
-    <t>Building test</t>
-  </si>
-  <si>
-    <t>Choose 'Mechanical Drill' in building menu</t>
-  </si>
-  <si>
-    <t>Drill icon will be circled by yellow outline</t>
-  </si>
-  <si>
-    <t>Place drill on ore</t>
-  </si>
-  <si>
-    <t>Drill building beggins</t>
-  </si>
-  <si>
-    <t>Character movement</t>
-  </si>
-  <si>
-    <t>Movement test</t>
-  </si>
-  <si>
-    <t>Swype in any direction</t>
-  </si>
-  <si>
-    <t>Character moove in center of screen</t>
-  </si>
-  <si>
-    <t>Character attack</t>
-  </si>
-  <si>
-    <t>Press and hold on the screen</t>
-  </si>
-  <si>
-    <t>Character begin shoot in hold direction</t>
+    <t>Click on the contacts in upper right corner</t>
   </si>
 </sst>
 </file>
@@ -664,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185C84B2-BF48-43DB-9022-4A7E2AABC3B4}">
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1012,11 +928,11 @@
         <v>1</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1027,7 +943,7 @@
         <v>2</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -1040,7 +956,7 @@
         <v>3</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -1053,10 +969,10 @@
         <v>4</v>
       </c>
       <c r="E25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="G25" s="2"/>
     </row>
@@ -1068,10 +984,10 @@
         <v>5</v>
       </c>
       <c r="E26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="G26" s="2"/>
     </row>
@@ -1080,16 +996,16 @@
         <v>7</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D27" s="2">
         <v>1</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2" t="s">
@@ -1104,7 +1020,7 @@
         <v>2</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -1117,10 +1033,10 @@
         <v>3</v>
       </c>
       <c r="E29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="G29" s="2"/>
     </row>
@@ -1140,10 +1056,10 @@
         <v>8</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D31" s="2">
         <v>1</v>
@@ -1164,10 +1080,10 @@
         <v>2</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G32" s="2"/>
     </row>
@@ -1179,10 +1095,10 @@
         <v>3</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G33" s="2"/>
     </row>
@@ -1202,10 +1118,10 @@
         <v>9</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D35" s="2">
         <v>1</v>
@@ -1226,10 +1142,10 @@
         <v>2</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G36" s="2"/>
     </row>
@@ -1241,10 +1157,10 @@
         <v>3</v>
       </c>
       <c r="E37" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="G37" s="2"/>
     </row>
@@ -1264,10 +1180,10 @@
         <v>10</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="D39" s="2">
         <v>1</v>
@@ -1288,10 +1204,10 @@
         <v>2</v>
       </c>
       <c r="E40" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="G40" s="2"/>
     </row>
@@ -1317,413 +1233,8 @@
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
-        <v>1</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D46" s="2">
-        <v>1</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="2">
-        <v>2</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G47" s="2"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="2">
-        <v>3</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G48" s="2"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="2">
-        <v>4</v>
-      </c>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
-        <v>2</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D50" s="2">
-        <v>1</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="2">
-        <v>2</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="2">
-        <v>3</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G52" s="2"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="2">
-        <v>4</v>
-      </c>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
-        <v>3</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D54" s="2">
-        <v>1</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="2">
-        <v>2</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="2">
-        <v>3</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G56" s="2"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="2">
-        <v>4</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
-        <v>4</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D58" s="2">
-        <v>1</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="2">
-        <v>2</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="2">
-        <v>3</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G60" s="2"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="2">
-        <v>4</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G61" s="2"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
-        <v>5</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D62" s="2">
-        <v>1</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="2">
-        <v>2</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="2">
-        <v>3</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G64" s="2"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="2">
-        <v>4</v>
-      </c>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
-        <v>6</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C66" s="3"/>
-      <c r="D66" s="2">
-        <v>1</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="2">
-        <v>2</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="2">
-        <v>3</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G68" s="2"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="2">
-        <v>4</v>
-      </c>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="C58:C61"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="A62:A65"/>
+  <mergeCells count="30">
     <mergeCell ref="A39:A42"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C2:C5"/>
